--- a/docs/odh/shr-core-OccurrenceTimeOrPeriod-model.xlsx
+++ b/docs/odh/shr-core-OccurrenceTimeOrPeriod-model.xlsx
@@ -134,7 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>The point in time or span of time in which something happens.</t>
+    <t>The point or period of time when the event takes place. Times can be precise (dateTime) or approximate (date). If a time period is used, and the start date or dateTime is missing, the start of the period is not known. If the end date or dateTime is missing, it means that the period is ongoing.</t>
   </si>
   <si>
     <t>shr-core-OccurrenceTimeOrPeriod-model.value[x]</t>
@@ -144,10 +144,10 @@
   </si>
   <si>
     <t>date {[]} {[]}
-dateTime {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Choice of types representing the point in time or span of time in which something happens.</t>
+dateTime {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Choice of types representing the point or period of time when the event takes place. Times can be precise (dateTime) or approximate (date). If a time period is used, and the start date or dateTime is missing, the start of the period is not known. If the end date or dateTime is missing, it means that the period is ongoing.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -315,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
